--- a/biology/Zoologie/Aemngvantom_lao/Aemngvantom_lao.xlsx
+++ b/biology/Zoologie/Aemngvantom_lao/Aemngvantom_lao.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aemngvantom lao est une espèce de scorpions de la famille des Pseudochactidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de la province de Khammouane au Laos[1]. Elle se rencontre dans la grotte Tham Nam Lot dans le karst du Khammouane.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de la province de Khammouane au Laos. Elle se rencontre dans la grotte Tham Nam Lot dans le karst du Khammouane.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 23,4 mm[1].
-Les mâles mesurent de 24,5 à 29,5 mm et les femelles de 23,4 à 37,4 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 23,4 mm.
+Les mâles mesurent de 24,5 à 29,5 mm et les femelles de 23,4 à 37,4 mm.
 Ce scorpion troglobie est anophthalme et blanc à jaune très pale.
 </t>
         </is>
@@ -575,9 +591,11 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Vietbocap lao par Lourenço en 2012. Elle est placée dans le genre Aemngvantom par Prendini, Ehrenthal et Loria en 2021[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite sous le protonyme Vietbocap lao par Lourenço en 2012. Elle est placée dans le genre Aemngvantom par Prendini, Ehrenthal et Loria en 2021.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, le Laos.
 </t>
@@ -637,7 +657,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Lourenço, 2012 : « The genus Vietbocap Lourenço &amp; Pham, 2010 (Scorpiones: Pseudochactidae); proposition of a new subfamily and description of a new species from Laos. » Comptes Rendus Biologies,  vol. 335, no 3, p. 232-237.</t>
         </is>
